--- a/SoftPACTesting/test/resources/data/KDT.xlsx
+++ b/SoftPACTesting/test/resources/data/KDT.xlsx
@@ -3,20 +3,20 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEFD279-960C-43CF-BD72-60C87DBC265A}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0098EEFE-C714-4A42-9DC4-7C2B7F4878C0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
-    <sheet name="Membership" sheetId="2" r:id="rId2"/>
+    <sheet name="MembershipRegistration" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
   <si>
     <t>Keyword</t>
   </si>
@@ -84,9 +84,6 @@
     <t>WAITUNTIL</t>
   </si>
   <si>
-    <t>OPENEXCEL</t>
-  </si>
-  <si>
     <t>link</t>
   </si>
   <si>
@@ -112,13 +109,76 @@
   </si>
   <si>
     <t>{{password}}</t>
+  </si>
+  <si>
+    <t>VERIFYTITLE</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>Register Individual</t>
+  </si>
+  <si>
+    <t>Please select Type</t>
+  </si>
+  <si>
+    <t>partiallink</t>
+  </si>
+  <si>
+    <t>DROPDOWN</t>
+  </si>
+  <si>
+    <t>#member_types_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>Customer</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>Single</t>
+  </si>
+  <si>
+    <t>custFirstName</t>
+  </si>
+  <si>
+    <t>Harsh</t>
+  </si>
+  <si>
+    <t>custMiddleName</t>
+  </si>
+  <si>
+    <t>custLastName</t>
+  </si>
+  <si>
+    <t>Mathur</t>
+  </si>
+  <si>
+    <t>custSex</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>datepicker</t>
+  </si>
+  <si>
+    <t>TIMEOUT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,6 +215,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -170,7 +236,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -193,12 +259,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -232,7 +311,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,11 +660,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3:XFD3"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,7 +716,7 @@
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -656,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -672,53 +760,65 @@
         <v>7</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
       <c r="B7" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="11"/>
+        <v>31</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="14" t="s">
+        <v>32</v>
+      </c>
       <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
       <c r="B8" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="11" t="s">
-        <v>27</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="11"/>
       <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="11" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C9" s="11"/>
       <c r="D9" s="12"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
+      <c r="E9" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
-      <c r="B10" s="11"/>
+      <c r="B10" s="11" t="s">
+        <v>23</v>
+      </c>
       <c r="C10" s="11"/>
       <c r="D10" s="12"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="8"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="8"/>
+      <c r="F11" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -728,18 +828,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386A8A92-97D3-462F-965E-4B5A1AF37519}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" customWidth="1"/>
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="47.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
@@ -766,7 +866,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -777,34 +877,40 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="3" t="s">
-        <v>25</v>
+      <c r="E4" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="F4" s="3"/>
     </row>
-    <row r="5" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F5" s="3"/>
     </row>
@@ -814,42 +920,40 @@
         <v>8</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>14</v>
+      <c r="E6" s="5" t="s">
+        <v>15</v>
       </c>
       <c r="F6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -857,13 +961,13 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -871,13 +975,13 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -885,41 +989,41 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
+      <c r="A12" s="1"/>
       <c r="B12" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+        <v>22</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -927,13 +1031,13 @@
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -941,17 +1045,172 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>35</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16"/>
+      <c r="B16" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16"/>
+      <c r="B17" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F20" s="16"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="23" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16"/>
+      <c r="B23" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13">
+        <v>2</v>
+      </c>
+      <c r="F23" s="16"/>
+    </row>
+    <row r="24" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="19"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{37A58966-57D3-4D61-89F9-A132980093E8}"/>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{37A58966-57D3-4D61-89F9-A132980093E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>
--- a/SoftPACTesting/test/resources/data/KDT.xlsx
+++ b/SoftPACTesting/test/resources/data/KDT.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0098EEFE-C714-4A42-9DC4-7C2B7F4878C0}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C81948-DDB0-43D1-B694-8B9B2BBB682C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="MembershipRegistration" sheetId="2" r:id="rId2"/>
+    <sheet name="CreateFd" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
   <si>
     <t>Keyword</t>
   </si>
@@ -171,7 +172,82 @@
     <t>datepicker</t>
   </si>
   <si>
+    <t>religion</t>
+  </si>
+  <si>
+    <t>Buddhist</t>
+  </si>
+  <si>
+    <t>Please select Occupation</t>
+  </si>
+  <si>
+    <t>#occupation_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>Farmer</t>
+  </si>
+  <si>
+    <t>sir ke idea ke bare me jrur sochna---------------</t>
+  </si>
+  <si>
+    <t>Term Deposit</t>
+  </si>
+  <si>
+    <t>Fixed Deposit</t>
+  </si>
+  <si>
+    <t>LINK</t>
+  </si>
+  <si>
+    <t>Create Fixed Deposit</t>
+  </si>
+  <si>
+    <t>Select Member ID</t>
+  </si>
+  <si>
+    <t>#member_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>120403-Kanika Kapish</t>
+  </si>
+  <si>
+    <t>Select Account Number</t>
+  </si>
+  <si>
+    <t>#accountnumber_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>SB 364-Kanika Kapish</t>
+  </si>
+  <si>
     <t>TIMEOUT</t>
+  </si>
+  <si>
+    <t>view_bal</t>
+  </si>
+  <si>
+    <t>nominee</t>
+  </si>
+  <si>
+    <t>Kuldeep Kapish</t>
+  </si>
+  <si>
+    <t>#relation_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>Father</t>
+  </si>
+  <si>
+    <t>Select Relation</t>
+  </si>
+  <si>
+    <t>senior citizen</t>
+  </si>
+  <si>
+    <t>RADIOBUTTON</t>
+  </si>
+  <si>
+    <t>Hidden</t>
   </si>
 </sst>
 </file>
@@ -277,7 +353,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -286,12 +362,6 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -319,8 +389,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -669,156 +787,156 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.28515625" style="7" customWidth="1"/>
-    <col min="3" max="3" width="25" style="7" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="38.5703125" style="7" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="7" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="7"/>
+    <col min="1" max="1" width="22.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="25" style="5" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" style="5" customWidth="1"/>
+    <col min="5" max="5" width="38.5703125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.42578125" style="5" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="9"/>
+      <c r="B3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11" t="s">
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="11"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="9" t="s">
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="11"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="11"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="11" t="s">
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="6"/>
+      <c r="B10" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -828,10 +946,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386A8A92-97D3-462F-965E-4B5A1AF37519}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,7 +958,7 @@
     <col min="2" max="2" width="19.42578125" customWidth="1"/>
     <col min="3" max="3" width="47.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" style="27" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -857,7 +975,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="18" t="s">
         <v>1</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -871,7 +989,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="3"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -881,19 +999,19 @@
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="19" t="s">
         <v>24</v>
       </c>
       <c r="F3" s="3"/>
     </row>
-    <row r="4" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="3"/>
@@ -909,7 +1027,7 @@
       <c r="D5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="20" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="3"/>
@@ -925,7 +1043,7 @@
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="21" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="3"/>
@@ -938,10 +1056,10 @@
       <c r="C7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="19"/>
       <c r="F7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -952,10 +1070,10 @@
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="3"/>
+      <c r="E8" s="19"/>
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -966,10 +1084,10 @@
       <c r="C9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="3"/>
+      <c r="E9" s="19"/>
       <c r="F9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -980,10 +1098,10 @@
       <c r="C10" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="3"/>
+      <c r="E10" s="19"/>
       <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -994,10 +1112,10 @@
       <c r="C11" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="3"/>
+      <c r="E11" s="19"/>
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1008,10 +1126,10 @@
       <c r="C12" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1"/>
+      <c r="E12" s="22"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1022,10 +1140,10 @@
       <c r="C13" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="1"/>
+      <c r="E13" s="22"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1036,10 +1154,10 @@
       <c r="C14" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="1"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1047,164 +1165,250 @@
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="16"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="16" t="s">
+      <c r="C16" s="14" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="D16" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="16"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="16"/>
-      <c r="B17" s="16" t="s">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="16" t="s">
+      <c r="D17" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E17" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="16"/>
-      <c r="B18" s="16" t="s">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="F18" s="16"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="14"/>
+      <c r="B19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C19" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="D19" s="13" t="s">
+      <c r="D19" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="14"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="13" t="s">
+      <c r="A20" s="14"/>
+      <c r="B20" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="C20" s="16" t="s">
+      <c r="C20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="13" t="s">
+      <c r="D20" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F20" s="16"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="15"/>
+      <c r="B21" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="F21" s="17"/>
+      <c r="F21" s="15"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="17"/>
-      <c r="B22" s="18" t="s">
+      <c r="A22" s="15"/>
+      <c r="B22" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="17"/>
-    </row>
-    <row r="23" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="16"/>
-      <c r="B23" s="13" t="s">
+      <c r="E22" s="25"/>
+      <c r="F22" s="15"/>
+    </row>
+    <row r="23" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="26">
+        <v>35250</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="13">
-        <v>2</v>
-      </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="16"/>
-      <c r="B24" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" s="13" t="s">
+      <c r="D24" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="E24" s="19"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="16"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
+      <c r="E24" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="14"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="14"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="14"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1213,4 +1417,503 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F75FEF4-ED88-4954-8513-A78D8C6558D7}">
+  <dimension ref="A1:K41"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="26" style="32"/>
+    <col min="3" max="3" width="31.28515625" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="26" style="32"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" ht="24.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="1">
+        <v>5</v>
+      </c>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="31" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" s="1"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1"/>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{CB1E30AB-678E-4C78-B68C-E4644084D2A8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
 </file>
--- a/SoftPACTesting/test/resources/data/KDT.xlsx
+++ b/SoftPACTesting/test/resources/data/KDT.xlsx
@@ -3,14 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C81948-DDB0-43D1-B694-8B9B2BBB682C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73879C8B-B62A-4655-BCEC-00F82957DABA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="MembershipRegistration" sheetId="2" r:id="rId2"/>
     <sheet name="CreateFd" sheetId="3" r:id="rId3"/>
+    <sheet name="transactionEntry" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -1423,7 +1424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F75FEF4-ED88-4954-8513-A78D8C6558D7}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1916,4 +1917,16 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3053B871-3A11-4114-A0E0-32664179DC61}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/SoftPACTesting/test/resources/data/KDT.xlsx
+++ b/SoftPACTesting/test/resources/data/KDT.xlsx
@@ -3,21 +3,23 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C81948-DDB0-43D1-B694-8B9B2BBB682C}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B01FFD3-3C8C-43F5-9E96-FEEA2134DCEF}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10275" windowHeight="5475" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="login" sheetId="1" r:id="rId1"/>
     <sheet name="MembershipRegistration" sheetId="2" r:id="rId2"/>
-    <sheet name="CreateFd" sheetId="3" r:id="rId3"/>
+    <sheet name="MembRegNonInd" sheetId="5" r:id="rId3"/>
+    <sheet name="CreateFdSingle" sheetId="3" r:id="rId4"/>
+    <sheet name="CreateFdJoint" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="110">
   <si>
     <t>Keyword</t>
   </si>
@@ -241,20 +243,119 @@
     <t>Select Relation</t>
   </si>
   <si>
-    <t>senior citizen</t>
-  </si>
-  <si>
     <t>RADIOBUTTON</t>
   </si>
   <si>
     <t>Hidden</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>inyear</t>
+  </si>
+  <si>
+    <t>inmonth</t>
+  </si>
+  <si>
+    <t>indays</t>
+  </si>
+  <si>
+    <t>cal_maturity</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>view_rate</t>
+  </si>
+  <si>
+    <t>normal-1 Days To 1 Year</t>
+  </si>
+  <si>
+    <t>Select Period</t>
+  </si>
+  <si>
+    <t>#tenure_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>Create FD Single</t>
+  </si>
+  <si>
+    <t>holder_name</t>
+  </si>
+  <si>
+    <t>Kavita Kapish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Select Relation </t>
+  </si>
+  <si>
+    <t>#holder_relation_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>Mother</t>
+  </si>
+  <si>
+    <t>fdtype1</t>
+  </si>
+  <si>
+    <t>Register Non-Individual</t>
+  </si>
+  <si>
+    <t>Non-Individual</t>
+  </si>
+  <si>
+    <t>Joint</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>Vaishali Malik</t>
+  </si>
+  <si>
+    <t>Dinesh Malik</t>
+  </si>
+  <si>
+    <t>Vishal Malik</t>
+  </si>
+  <si>
+    <t>operator1</t>
+  </si>
+  <si>
+    <t>operator2</t>
+  </si>
+  <si>
+    <t>custFirstName1</t>
+  </si>
+  <si>
+    <t>custFirstName2</t>
+  </si>
+  <si>
+    <t>Malik</t>
+  </si>
+  <si>
+    <t>Kapoor</t>
+  </si>
+  <si>
+    <t>custconstitution</t>
+  </si>
+  <si>
+    <t>Broker</t>
+  </si>
+  <si>
+    <t>details</t>
+  </si>
+  <si>
+    <t>doc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +397,13 @@
       <color rgb="FF222222"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -353,7 +461,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -439,6 +547,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -782,7 +918,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,8 +1084,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386A8A92-97D3-462F-965E-4B5A1AF37519}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1420,11 +1556,954 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D61B7D82-CEE6-41FD-9125-EE56619CF1C3}">
+  <dimension ref="A1:F94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="39.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="19"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="14"/>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14"/>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="22"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="14"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="14"/>
+      <c r="B19" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="23"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>104</v>
+      </c>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="14"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="14"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="14"/>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="14"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="14"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="14"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="14"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="14"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="14"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="14"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="14"/>
+      <c r="F45" s="14"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="14"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="14"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="14"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="14"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="14"/>
+      <c r="B49" s="14"/>
+      <c r="C49" s="14"/>
+      <c r="D49" s="14"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+      <c r="C50" s="14"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="14"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="14"/>
+      <c r="B51" s="14"/>
+      <c r="C51" s="14"/>
+      <c r="D51" s="14"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="14"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="14"/>
+      <c r="B52" s="14"/>
+      <c r="C52" s="14"/>
+      <c r="D52" s="14"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="14"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="14"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="14"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="14"/>
+      <c r="B54" s="14"/>
+      <c r="C54" s="14"/>
+      <c r="D54" s="14"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="14"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+      <c r="C55" s="14"/>
+      <c r="D55" s="14"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="14"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+      <c r="C56" s="14"/>
+      <c r="D56" s="14"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="14"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="14"/>
+      <c r="D57" s="14"/>
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+      <c r="C59" s="14"/>
+      <c r="D59" s="14"/>
+      <c r="E59" s="14"/>
+      <c r="F59" s="14"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="14"/>
+      <c r="E60" s="14"/>
+      <c r="F60" s="14"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+      <c r="C61" s="14"/>
+      <c r="D61" s="14"/>
+      <c r="E61" s="14"/>
+      <c r="F61" s="14"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+      <c r="C62" s="14"/>
+      <c r="D62" s="14"/>
+      <c r="E62" s="14"/>
+      <c r="F62" s="14"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+      <c r="C63" s="14"/>
+      <c r="D63" s="14"/>
+      <c r="E63" s="14"/>
+      <c r="F63" s="14"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+      <c r="C64" s="14"/>
+      <c r="D64" s="14"/>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
+      <c r="D65" s="14"/>
+      <c r="E65" s="14"/>
+      <c r="F65" s="14"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
+      <c r="D66" s="14"/>
+      <c r="E66" s="14"/>
+      <c r="F66" s="14"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
+      <c r="D67" s="14"/>
+      <c r="E67" s="14"/>
+      <c r="F67" s="14"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+      <c r="C68" s="14"/>
+      <c r="D68" s="14"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="14"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+      <c r="C69" s="14"/>
+      <c r="D69" s="14"/>
+      <c r="E69" s="14"/>
+      <c r="F69" s="14"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+      <c r="C70" s="14"/>
+      <c r="D70" s="14"/>
+      <c r="E70" s="14"/>
+      <c r="F70" s="14"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+      <c r="C71" s="14"/>
+      <c r="D71" s="14"/>
+      <c r="E71" s="14"/>
+      <c r="F71" s="14"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+      <c r="C72" s="14"/>
+      <c r="D72" s="14"/>
+      <c r="E72" s="14"/>
+      <c r="F72" s="14"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+      <c r="C73" s="14"/>
+      <c r="D73" s="14"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="14"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+      <c r="C74" s="14"/>
+      <c r="D74" s="14"/>
+      <c r="E74" s="14"/>
+      <c r="F74" s="14"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+      <c r="C75" s="14"/>
+      <c r="D75" s="14"/>
+      <c r="E75" s="14"/>
+      <c r="F75" s="14"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+      <c r="C76" s="14"/>
+      <c r="D76" s="14"/>
+      <c r="E76" s="14"/>
+      <c r="F76" s="14"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+      <c r="C77" s="14"/>
+      <c r="D77" s="14"/>
+      <c r="E77" s="14"/>
+      <c r="F77" s="14"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+      <c r="C78" s="14"/>
+      <c r="D78" s="14"/>
+      <c r="E78" s="14"/>
+      <c r="F78" s="14"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+      <c r="C79" s="14"/>
+      <c r="D79" s="14"/>
+      <c r="E79" s="14"/>
+      <c r="F79" s="14"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+      <c r="C80" s="14"/>
+      <c r="D80" s="14"/>
+      <c r="E80" s="14"/>
+      <c r="F80" s="14"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+      <c r="C81" s="14"/>
+      <c r="D81" s="14"/>
+      <c r="E81" s="14"/>
+      <c r="F81" s="14"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+      <c r="C82" s="14"/>
+      <c r="D82" s="14"/>
+      <c r="E82" s="14"/>
+      <c r="F82" s="14"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+      <c r="C83" s="14"/>
+      <c r="D83" s="14"/>
+      <c r="E83" s="14"/>
+      <c r="F83" s="14"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+      <c r="C84" s="14"/>
+      <c r="D84" s="14"/>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+      <c r="C85" s="14"/>
+      <c r="D85" s="14"/>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+      <c r="C86" s="14"/>
+      <c r="D86" s="14"/>
+      <c r="E86" s="14"/>
+      <c r="F86" s="14"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+      <c r="C87" s="14"/>
+      <c r="D87" s="14"/>
+      <c r="E87" s="14"/>
+      <c r="F87" s="14"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="14"/>
+      <c r="E88" s="14"/>
+      <c r="F88" s="14"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+      <c r="C89" s="14"/>
+      <c r="D89" s="14"/>
+      <c r="E89" s="14"/>
+      <c r="F89" s="14"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="14"/>
+      <c r="E90" s="14"/>
+      <c r="F90" s="14"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+      <c r="C91" s="14"/>
+      <c r="D91" s="14"/>
+      <c r="E91" s="14"/>
+      <c r="F91" s="14"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+      <c r="C92" s="14"/>
+      <c r="D92" s="14"/>
+      <c r="E92" s="14"/>
+      <c r="F92" s="14"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+      <c r="C93" s="14"/>
+      <c r="D93" s="14"/>
+      <c r="E93" s="14"/>
+      <c r="F93" s="14"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="14"/>
+      <c r="C94" s="14"/>
+      <c r="D94" s="14"/>
+      <c r="E94" s="14"/>
+      <c r="F94" s="14"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{8AC262CF-255F-4F3F-A473-BA478F14E7A8}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F75FEF4-ED88-4954-8513-A78D8C6558D7}">
-  <dimension ref="A1:K41"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1456,7 +2535,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1698,12 +2777,12 @@
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="31" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -1756,76 +2835,134 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F23" s="1"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="1">
+        <v>10000</v>
+      </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="1">
+        <v>23</v>
+      </c>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30" s="31" t="s">
+        <v>83</v>
+      </c>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>18</v>
+      </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
@@ -1909,6 +3046,30 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
     </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E6" r:id="rId1" xr:uid="{CB1E30AB-678E-4C78-B68C-E4644084D2A8}"/>
@@ -1916,4 +3077,574 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1933F68-F0EA-45ED-8C51-B832B52E5794}">
+  <dimension ref="A1:F38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F38" sqref="A38:F38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" style="37" customWidth="1"/>
+    <col min="2" max="2" width="19" style="37" customWidth="1"/>
+    <col min="3" max="3" width="39.85546875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="41.28515625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="18" style="37" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="38"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="44"/>
+      <c r="B9" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="44"/>
+      <c r="B11" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="44"/>
+      <c r="B12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="44"/>
+      <c r="B13" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="44"/>
+      <c r="B14" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="44"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="44"/>
+      <c r="B15" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44">
+        <v>5</v>
+      </c>
+      <c r="F15" s="44"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="44"/>
+      <c r="B16" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>65</v>
+      </c>
+      <c r="D17" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="F17" s="44"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="44"/>
+      <c r="B19" s="44" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="44"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="44"/>
+      <c r="B20" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="45"/>
+      <c r="F20" s="44"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="47" t="s">
+        <v>87</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="45"/>
+      <c r="F21" s="44"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="44"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="44"/>
+      <c r="B23" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="44" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E24" s="44" t="s">
+        <v>91</v>
+      </c>
+      <c r="F24" s="44"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="44"/>
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="44"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="44"/>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="44"/>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="44"/>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F27" s="44"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="44"/>
+      <c r="B28" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="44"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="44"/>
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="1">
+        <v>10000</v>
+      </c>
+      <c r="F29" s="44"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="44"/>
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="1">
+        <v>2</v>
+      </c>
+      <c r="F30" s="44"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="44"/>
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4</v>
+      </c>
+      <c r="F31" s="44"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="44"/>
+      <c r="B32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="1">
+        <v>23</v>
+      </c>
+      <c r="F32" s="44"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="44"/>
+      <c r="B33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="44"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="44"/>
+      <c r="B34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="F34" s="44"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="44"/>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="44"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="44"/>
+      <c r="B36" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="31">
+        <v>2</v>
+      </c>
+      <c r="F36" s="44"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="44"/>
+      <c r="B37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="44"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="44"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="44"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{57F20283-E21C-4037-8B36-3C019D0BAFB3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
+</worksheet>
 </file>
--- a/SoftPACTesting/test/resources/data/KDT.xlsx
+++ b/SoftPACTesting/test/resources/data/KDT.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73879C8B-B62A-4655-BCEC-00F82957DABA}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80AFEA84-6602-4400-96EA-6979C30134A3}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14385" windowHeight="4095" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="86">
   <si>
     <t>Keyword</t>
   </si>
@@ -249,6 +249,33 @@
   </si>
   <si>
     <t>Hidden</t>
+  </si>
+  <si>
+    <t>Transaction</t>
+  </si>
+  <si>
+    <t>Transaction Entry</t>
+  </si>
+  <si>
+    <t>Receipt / Payment</t>
+  </si>
+  <si>
+    <t>120892-Vikash Anand</t>
+  </si>
+  <si>
+    <t>CA 742</t>
+  </si>
+  <si>
+    <t>#account_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>#transaction_chosen &gt; div &gt; ul &gt; li</t>
+  </si>
+  <si>
+    <t>Credit</t>
   </si>
 </sst>
 </file>
@@ -354,7 +381,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -439,6 +466,36 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,8 +1006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{386A8A92-97D3-462F-965E-4B5A1AF37519}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F75FEF4-ED88-4954-8513-A78D8C6558D7}">
   <dimension ref="A1:K41"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -1921,12 +1978,389 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3053B871-3A11-4114-A0E0-32664179DC61}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="16.85546875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="37" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="35" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="38"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="38"/>
+      <c r="B3" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" s="38"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="40" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="38"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="38"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="38"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="38"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="39"/>
+      <c r="F9" s="38"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="39"/>
+      <c r="F10" s="38"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="39"/>
+      <c r="F11" s="38"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="43"/>
+      <c r="B12" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="23"/>
+      <c r="F12" s="43"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="43"/>
+      <c r="B13" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="23"/>
+      <c r="F13" s="43"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="43"/>
+      <c r="B14" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="23"/>
+      <c r="F14" s="43"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="43"/>
+      <c r="B15" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>61</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="23"/>
+      <c r="F15" s="43"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="43"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="43"/>
+      <c r="B17" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="43"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="43"/>
+      <c r="B18" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="23"/>
+      <c r="F18" s="43"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="43"/>
+      <c r="B19" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19" s="43"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="43"/>
+      <c r="B20" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E20" s="23"/>
+      <c r="F20" s="43"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="43"/>
+      <c r="B21" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="43"/>
+      <c r="B22" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="43"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="45"/>
+      <c r="C23" s="43"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="45"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="45"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="45"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="45"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="43"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="43"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="43"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="43"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="43"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="44"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="43"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1" xr:uid="{1D11F045-9FEE-4DA5-B569-18C5B79765CE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="90" verticalDpi="90" r:id="rId2"/>
 </worksheet>
 </file>